--- a/TestCases/ToBeAutomated/SCG.xlsx
+++ b/TestCases/ToBeAutomated/SCG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19035" windowHeight="8445"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
   <si>
     <t>Sr No.</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>Test to ensure that appropriate error message is displayed if Collection site is Closed</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>cannot be automated, anticipated attributed not available.</t>
+  </si>
+  <si>
+    <t>Cannot add since currently collecytion site id is used.</t>
   </si>
 </sst>
 </file>
@@ -317,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -331,6 +349,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,6 +696,12 @@
       <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
       <c r="AE2" t="s">
         <v>81</v>
       </c>
@@ -688,6 +713,15 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="7">
+        <v>40610</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
       <c r="AE3" t="s">
         <v>82</v>
       </c>
@@ -706,6 +740,15 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="30">
       <c r="A6">
@@ -714,6 +757,15 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="45">
       <c r="A7">
@@ -722,6 +774,12 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="45">
       <c r="A8">
@@ -730,6 +788,15 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="45">
       <c r="A9">
@@ -738,6 +805,12 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="45">
       <c r="A10">
@@ -746,6 +819,15 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="7">
+        <v>40610</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="45">
       <c r="A11">
@@ -754,6 +836,12 @@
       <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="45">
       <c r="A12">
@@ -762,6 +850,15 @@
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="45">
       <c r="A13">
@@ -770,6 +867,15 @@
       <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="45">
       <c r="A14">
@@ -778,6 +884,15 @@
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="15" spans="1:31" ht="45">
       <c r="A15">
@@ -786,6 +901,15 @@
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
+        <v>40611</v>
+      </c>
     </row>
     <row r="16" spans="1:31" ht="45">
       <c r="A16">
@@ -794,176 +918,360 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="45">
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="45">
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="45">
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="45">
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45">
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="45">
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="45">
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="45">
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="45">
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="45">
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="45">
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="45">
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="45">
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="45">
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="45">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="45">
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="45">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="45">
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="45">
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="45">
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="45">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="45">
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="45">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="45">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -971,39 +1279,75 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
+    <row r="39" spans="1:8" ht="45">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="45">
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="45">
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="45">
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="45">
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1011,39 +1355,63 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45">
+    <row r="44" spans="1:8" ht="45">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="30">
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="30">
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="45">
+      <c r="G46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="30">
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1051,23 +1419,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45">
+    <row r="49" spans="1:8" ht="45">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="30">
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="45">
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="7">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1075,11 +1461,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1">
+    <row r="52" spans="1:8" s="4" customFormat="1">
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="30">
+    <row r="53" spans="1:8" ht="30">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1090,7 +1476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30">
+    <row r="54" spans="1:8" ht="30">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1098,7 +1484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30">
+    <row r="55" spans="1:8" ht="30">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1106,7 +1492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1114,7 +1500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30">
+    <row r="57" spans="1:8" ht="30">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1122,7 +1508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30">
+    <row r="58" spans="1:8" ht="30">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1130,7 +1516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30">
+    <row r="59" spans="1:8" ht="30">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1138,7 +1524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30">
+    <row r="60" spans="1:8" ht="30">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1146,7 +1532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1154,11 +1540,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="4" customFormat="1">
+    <row r="62" spans="1:8" s="4" customFormat="1">
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:5" ht="45">
+    <row r="63" spans="1:8" ht="45">
       <c r="A63">
         <v>59</v>
       </c>
@@ -1172,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45">
+    <row r="64" spans="1:8" ht="45">
       <c r="A64">
         <v>60</v>
       </c>

--- a/TestCases/ToBeAutomated/SCG.xlsx
+++ b/TestCases/ToBeAutomated/SCG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
   <si>
     <t>Sr No.</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Cannot add since currently collecytion site id is used.</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -646,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,6 +667,7 @@
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1">
@@ -1475,6 +1485,15 @@
       <c r="C53" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="7">
+        <v>40612</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="30">
       <c r="A54">
@@ -1483,6 +1502,15 @@
       <c r="C54" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="7">
+        <v>40612</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55">
@@ -1491,6 +1519,12 @@
       <c r="C55" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56">
@@ -1499,6 +1533,12 @@
       <c r="C56" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="30">
       <c r="A57">
@@ -1507,6 +1547,12 @@
       <c r="C57" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="30">
       <c r="A58">
@@ -1515,6 +1561,15 @@
       <c r="C58" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="7">
+        <v>40612</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="30">
       <c r="A59">
@@ -1523,6 +1578,15 @@
       <c r="C59" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="7">
+        <v>40612</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="30">
       <c r="A60">
@@ -1531,6 +1595,15 @@
       <c r="C60" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="7">
+        <v>40612</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61">
@@ -1538,6 +1611,15 @@
       </c>
       <c r="C61" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="7">
+        <v>40612</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="4" customFormat="1">
